--- a/static/Laporan Rekapitulasi Aktivitas Transaksi Partisipan.xlsx
+++ b/static/Laporan Rekapitulasi Aktivitas Transaksi Partisipan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TSG\AQI\bei-idx-portal-api-general-services\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3E60EB-4D8F-4AEF-8BC2-6682102EC296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF861BBD-69AB-4136-A689-E271E3E7BF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BBC38658-C1ED-4EBD-B487-48AFE3AC2E1B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BBC38658-C1ED-4EBD-B487-48AFE3AC2E1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Laporan Rekapitulasi Aktivitas Transaksi</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>Jumlah Cancel Pelaporan</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>Wrong</t>
   </si>
 </sst>
 </file>
@@ -277,7 +286,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
@@ -312,20 +321,19 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665654CD-25C2-4250-A402-3D5D7139529A}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -662,23 +670,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="17"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="14"/>
     </row>
     <row r="2" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
@@ -711,7 +719,6 @@
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
-      <c r="M2" s="13"/>
     </row>
     <row r="3" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
@@ -722,10 +729,16 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="I3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
